--- a/examples/generate_echo_setup_file/Inputs/example_4.xlsx
+++ b/examples/generate_echo_setup_file/Inputs/example_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\summer internship 2021\echo project\examples for GitHub\Outputs\example_4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C40822F4-34A8-4FC5-BB82-E608B8F0FADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA6FA96-74BF-4545-8BBD-101C9343BFB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4749,6 +4749,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4886,7 +4890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -4900,6 +4904,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5206,10 +5213,11 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="5.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="49" width="4.453125" customWidth="1"/>
-    <col min="50" max="52" width="20" customWidth="1"/>
+    <col min="5" max="14" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="27" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="31" max="40" width="7.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.35">
@@ -5463,94 +5471,100 @@
         <v>6</v>
       </c>
       <c r="B8" s="6"/>
-      <c r="E8">
-        <v>1.4</v>
-      </c>
-      <c r="F8">
-        <v>1.4</v>
-      </c>
-      <c r="G8">
-        <v>1.4</v>
-      </c>
-      <c r="H8">
-        <v>1.4</v>
-      </c>
-      <c r="I8">
-        <v>1.4</v>
-      </c>
-      <c r="J8">
-        <v>1.4</v>
-      </c>
-      <c r="K8">
-        <v>1.4</v>
-      </c>
-      <c r="L8">
-        <v>1.4</v>
-      </c>
-      <c r="M8">
-        <v>1.4</v>
-      </c>
-      <c r="N8">
-        <v>1.4</v>
-      </c>
-      <c r="R8">
-        <v>1.4</v>
-      </c>
-      <c r="S8">
-        <v>1.4</v>
-      </c>
-      <c r="T8">
-        <v>1.4</v>
-      </c>
-      <c r="U8">
-        <v>1.4</v>
-      </c>
-      <c r="V8">
-        <v>1.4</v>
-      </c>
-      <c r="W8">
-        <v>1.4</v>
-      </c>
-      <c r="X8">
-        <v>1.4</v>
-      </c>
-      <c r="Y8">
-        <v>1.4</v>
-      </c>
-      <c r="Z8">
-        <v>1.4</v>
-      </c>
-      <c r="AA8">
-        <v>1.4</v>
-      </c>
-      <c r="AE8">
-        <v>1.4</v>
-      </c>
-      <c r="AF8">
-        <v>1.4</v>
-      </c>
-      <c r="AG8">
-        <v>1.4</v>
-      </c>
-      <c r="AH8">
-        <v>1.4</v>
-      </c>
-      <c r="AI8">
-        <v>1.4</v>
-      </c>
-      <c r="AJ8">
-        <v>1.4</v>
-      </c>
-      <c r="AK8">
-        <v>1.4</v>
-      </c>
-      <c r="AL8">
-        <v>1.4</v>
-      </c>
-      <c r="AM8">
-        <v>1.4</v>
-      </c>
-      <c r="AN8">
+      <c r="E8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="F8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="K8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="L8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="U8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="V8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="W8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Z8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AA8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AF8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AG8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AH8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AI8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AK8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AL8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AM8" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AN8" s="11">
         <v>1.4</v>
       </c>
       <c r="AW8" s="7"/>
@@ -5560,94 +5574,100 @@
         <v>7</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="E9">
-        <v>1.4</v>
-      </c>
-      <c r="F9">
-        <v>1.4</v>
-      </c>
-      <c r="G9">
-        <v>1.4</v>
-      </c>
-      <c r="H9">
-        <v>1.4</v>
-      </c>
-      <c r="I9">
-        <v>1.4</v>
-      </c>
-      <c r="J9">
-        <v>1.4</v>
-      </c>
-      <c r="K9">
-        <v>1.4</v>
-      </c>
-      <c r="L9">
-        <v>1.4</v>
-      </c>
-      <c r="M9">
-        <v>1.4</v>
-      </c>
-      <c r="N9">
-        <v>1.4</v>
-      </c>
-      <c r="R9">
-        <v>1.4</v>
-      </c>
-      <c r="S9">
-        <v>1.4</v>
-      </c>
-      <c r="T9">
-        <v>1.4</v>
-      </c>
-      <c r="U9">
-        <v>1.4</v>
-      </c>
-      <c r="V9">
-        <v>1.4</v>
-      </c>
-      <c r="W9">
-        <v>1.4</v>
-      </c>
-      <c r="X9">
-        <v>1.4</v>
-      </c>
-      <c r="Y9">
-        <v>1.4</v>
-      </c>
-      <c r="Z9">
-        <v>1.4</v>
-      </c>
-      <c r="AA9">
-        <v>1.4</v>
-      </c>
-      <c r="AE9">
-        <v>1.4</v>
-      </c>
-      <c r="AF9">
-        <v>1.4</v>
-      </c>
-      <c r="AG9">
-        <v>1.4</v>
-      </c>
-      <c r="AH9">
-        <v>1.4</v>
-      </c>
-      <c r="AI9">
-        <v>1.4</v>
-      </c>
-      <c r="AJ9">
-        <v>1.4</v>
-      </c>
-      <c r="AK9">
-        <v>1.4</v>
-      </c>
-      <c r="AL9">
-        <v>1.4</v>
-      </c>
-      <c r="AM9">
-        <v>1.4</v>
-      </c>
-      <c r="AN9">
+      <c r="E9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="F9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="K9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="L9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="U9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="V9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="W9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Z9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AA9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AB9" s="11"/>
+      <c r="AC9" s="11"/>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AF9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AG9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AH9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AI9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AK9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AL9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AM9" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AN9" s="11">
         <v>1.4</v>
       </c>
       <c r="AW9" s="7"/>
@@ -5657,94 +5677,100 @@
         <v>8</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="E10">
-        <v>1.4</v>
-      </c>
-      <c r="F10">
-        <v>1.4</v>
-      </c>
-      <c r="G10">
-        <v>1.4</v>
-      </c>
-      <c r="H10">
-        <v>1.4</v>
-      </c>
-      <c r="I10">
-        <v>1.4</v>
-      </c>
-      <c r="J10">
-        <v>1.4</v>
-      </c>
-      <c r="K10">
-        <v>1.4</v>
-      </c>
-      <c r="L10">
-        <v>1.4</v>
-      </c>
-      <c r="M10">
-        <v>1.4</v>
-      </c>
-      <c r="N10">
-        <v>1.4</v>
-      </c>
-      <c r="R10">
-        <v>1.4</v>
-      </c>
-      <c r="S10">
-        <v>1.4</v>
-      </c>
-      <c r="T10">
-        <v>1.4</v>
-      </c>
-      <c r="U10">
-        <v>1.4</v>
-      </c>
-      <c r="V10">
-        <v>1.4</v>
-      </c>
-      <c r="W10">
-        <v>1.4</v>
-      </c>
-      <c r="X10">
-        <v>1.4</v>
-      </c>
-      <c r="Y10">
-        <v>1.4</v>
-      </c>
-      <c r="Z10">
-        <v>1.4</v>
-      </c>
-      <c r="AA10">
-        <v>1.4</v>
-      </c>
-      <c r="AE10">
-        <v>1.4</v>
-      </c>
-      <c r="AF10">
-        <v>1.4</v>
-      </c>
-      <c r="AG10">
-        <v>1.4</v>
-      </c>
-      <c r="AH10">
-        <v>1.4</v>
-      </c>
-      <c r="AI10">
-        <v>1.4</v>
-      </c>
-      <c r="AJ10">
-        <v>1.4</v>
-      </c>
-      <c r="AK10">
-        <v>1.4</v>
-      </c>
-      <c r="AL10">
-        <v>1.4</v>
-      </c>
-      <c r="AM10">
-        <v>1.4</v>
-      </c>
-      <c r="AN10">
+      <c r="E10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="K10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="L10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="U10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="V10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="W10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Z10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AA10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AF10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AG10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AH10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AI10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AK10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AL10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AM10" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AN10" s="11">
         <v>1.4</v>
       </c>
       <c r="AW10" s="7"/>
@@ -5754,94 +5780,100 @@
         <v>9</v>
       </c>
       <c r="B11" s="6"/>
-      <c r="E11">
-        <v>1.4</v>
-      </c>
-      <c r="F11">
-        <v>1.4</v>
-      </c>
-      <c r="G11">
-        <v>1.4</v>
-      </c>
-      <c r="H11">
-        <v>1.4</v>
-      </c>
-      <c r="I11">
-        <v>1.4</v>
-      </c>
-      <c r="J11">
-        <v>1.4</v>
-      </c>
-      <c r="K11">
-        <v>1.4</v>
-      </c>
-      <c r="L11">
-        <v>1.4</v>
-      </c>
-      <c r="M11">
-        <v>1.4</v>
-      </c>
-      <c r="N11">
-        <v>1.4</v>
-      </c>
-      <c r="R11">
-        <v>1.4</v>
-      </c>
-      <c r="S11">
-        <v>1.4</v>
-      </c>
-      <c r="T11">
-        <v>1.4</v>
-      </c>
-      <c r="U11">
-        <v>1.4</v>
-      </c>
-      <c r="V11">
-        <v>1.4</v>
-      </c>
-      <c r="W11">
-        <v>1.4</v>
-      </c>
-      <c r="X11">
-        <v>1.4</v>
-      </c>
-      <c r="Y11">
-        <v>1.4</v>
-      </c>
-      <c r="Z11">
-        <v>1.4</v>
-      </c>
-      <c r="AA11">
-        <v>1.4</v>
-      </c>
-      <c r="AE11">
-        <v>1.4</v>
-      </c>
-      <c r="AF11">
-        <v>1.4</v>
-      </c>
-      <c r="AG11">
-        <v>1.4</v>
-      </c>
-      <c r="AH11">
-        <v>1.4</v>
-      </c>
-      <c r="AI11">
-        <v>1.4</v>
-      </c>
-      <c r="AJ11">
-        <v>1.4</v>
-      </c>
-      <c r="AK11">
-        <v>1.4</v>
-      </c>
-      <c r="AL11">
-        <v>1.4</v>
-      </c>
-      <c r="AM11">
-        <v>1.4</v>
-      </c>
-      <c r="AN11">
+      <c r="E11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="K11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="L11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="U11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="V11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="W11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AB11" s="11"/>
+      <c r="AC11" s="11"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AN11" s="11">
         <v>1.4</v>
       </c>
       <c r="AW11" s="7"/>
@@ -5851,94 +5883,100 @@
         <v>10</v>
       </c>
       <c r="B12" s="6"/>
-      <c r="E12">
-        <v>1.4</v>
-      </c>
-      <c r="F12">
-        <v>1.4</v>
-      </c>
-      <c r="G12">
-        <v>1.4</v>
-      </c>
-      <c r="H12">
-        <v>1.4</v>
-      </c>
-      <c r="I12">
-        <v>1.4</v>
-      </c>
-      <c r="J12">
-        <v>1.4</v>
-      </c>
-      <c r="K12">
-        <v>1.4</v>
-      </c>
-      <c r="L12">
-        <v>1.4</v>
-      </c>
-      <c r="M12">
-        <v>1.4</v>
-      </c>
-      <c r="N12">
-        <v>1.4</v>
-      </c>
-      <c r="R12">
-        <v>1.4</v>
-      </c>
-      <c r="S12">
-        <v>1.4</v>
-      </c>
-      <c r="T12">
-        <v>1.4</v>
-      </c>
-      <c r="U12">
-        <v>1.4</v>
-      </c>
-      <c r="V12">
-        <v>1.4</v>
-      </c>
-      <c r="W12">
-        <v>1.4</v>
-      </c>
-      <c r="X12">
-        <v>1.4</v>
-      </c>
-      <c r="Y12">
-        <v>1.4</v>
-      </c>
-      <c r="Z12">
-        <v>1.4</v>
-      </c>
-      <c r="AA12">
-        <v>1.4</v>
-      </c>
-      <c r="AE12">
-        <v>1.4</v>
-      </c>
-      <c r="AF12">
-        <v>1.4</v>
-      </c>
-      <c r="AG12">
-        <v>1.4</v>
-      </c>
-      <c r="AH12">
-        <v>1.4</v>
-      </c>
-      <c r="AI12">
-        <v>1.4</v>
-      </c>
-      <c r="AJ12">
-        <v>1.4</v>
-      </c>
-      <c r="AK12">
-        <v>1.4</v>
-      </c>
-      <c r="AL12">
-        <v>1.4</v>
-      </c>
-      <c r="AM12">
-        <v>1.4</v>
-      </c>
-      <c r="AN12">
+      <c r="E12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="U12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="V12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="W12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Y12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Z12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AA12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AB12" s="11"/>
+      <c r="AC12" s="11"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AF12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AG12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AH12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AI12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AK12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AL12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AM12" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AN12" s="11">
         <v>1.4</v>
       </c>
       <c r="AW12" s="7"/>
@@ -5948,94 +5986,100 @@
         <v>11</v>
       </c>
       <c r="B13" s="6"/>
-      <c r="E13">
-        <v>1.4</v>
-      </c>
-      <c r="F13">
-        <v>1.4</v>
-      </c>
-      <c r="G13">
-        <v>1.4</v>
-      </c>
-      <c r="H13">
-        <v>1.4</v>
-      </c>
-      <c r="I13">
-        <v>1.4</v>
-      </c>
-      <c r="J13">
-        <v>1.4</v>
-      </c>
-      <c r="K13">
-        <v>1.4</v>
-      </c>
-      <c r="L13">
-        <v>1.4</v>
-      </c>
-      <c r="M13">
-        <v>1.4</v>
-      </c>
-      <c r="N13">
-        <v>1.4</v>
-      </c>
-      <c r="R13">
-        <v>1.4</v>
-      </c>
-      <c r="S13">
-        <v>1.4</v>
-      </c>
-      <c r="T13">
-        <v>1.4</v>
-      </c>
-      <c r="U13">
-        <v>1.4</v>
-      </c>
-      <c r="V13">
-        <v>1.4</v>
-      </c>
-      <c r="W13">
-        <v>1.4</v>
-      </c>
-      <c r="X13">
-        <v>1.4</v>
-      </c>
-      <c r="Y13">
-        <v>1.4</v>
-      </c>
-      <c r="Z13">
-        <v>1.4</v>
-      </c>
-      <c r="AA13">
-        <v>1.4</v>
-      </c>
-      <c r="AE13">
-        <v>1.4</v>
-      </c>
-      <c r="AF13">
-        <v>1.4</v>
-      </c>
-      <c r="AG13">
-        <v>1.4</v>
-      </c>
-      <c r="AH13">
-        <v>1.4</v>
-      </c>
-      <c r="AI13">
-        <v>1.4</v>
-      </c>
-      <c r="AJ13">
-        <v>1.4</v>
-      </c>
-      <c r="AK13">
-        <v>1.4</v>
-      </c>
-      <c r="AL13">
-        <v>1.4</v>
-      </c>
-      <c r="AM13">
-        <v>1.4</v>
-      </c>
-      <c r="AN13">
+      <c r="E13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="K13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="L13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="U13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="V13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="W13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AB13" s="11"/>
+      <c r="AC13" s="11"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AN13" s="11">
         <v>1.4</v>
       </c>
       <c r="AW13" s="7"/>
@@ -6045,94 +6089,100 @@
         <v>12</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="E14">
-        <v>1.4</v>
-      </c>
-      <c r="F14">
-        <v>1.4</v>
-      </c>
-      <c r="G14">
-        <v>1.4</v>
-      </c>
-      <c r="H14">
-        <v>1.4</v>
-      </c>
-      <c r="I14">
-        <v>1.4</v>
-      </c>
-      <c r="J14">
-        <v>1.4</v>
-      </c>
-      <c r="K14">
-        <v>1.4</v>
-      </c>
-      <c r="L14">
-        <v>1.4</v>
-      </c>
-      <c r="M14">
-        <v>1.4</v>
-      </c>
-      <c r="N14">
-        <v>1.4</v>
-      </c>
-      <c r="R14">
-        <v>1.4</v>
-      </c>
-      <c r="S14">
-        <v>1.4</v>
-      </c>
-      <c r="T14">
-        <v>1.4</v>
-      </c>
-      <c r="U14">
-        <v>1.4</v>
-      </c>
-      <c r="V14">
-        <v>1.4</v>
-      </c>
-      <c r="W14">
-        <v>1.4</v>
-      </c>
-      <c r="X14">
-        <v>1.4</v>
-      </c>
-      <c r="Y14">
-        <v>1.4</v>
-      </c>
-      <c r="Z14">
-        <v>1.4</v>
-      </c>
-      <c r="AA14">
-        <v>1.4</v>
-      </c>
-      <c r="AE14">
-        <v>1.4</v>
-      </c>
-      <c r="AF14">
-        <v>1.4</v>
-      </c>
-      <c r="AG14">
-        <v>1.4</v>
-      </c>
-      <c r="AH14">
-        <v>1.4</v>
-      </c>
-      <c r="AI14">
-        <v>1.4</v>
-      </c>
-      <c r="AJ14">
-        <v>1.4</v>
-      </c>
-      <c r="AK14">
-        <v>1.4</v>
-      </c>
-      <c r="AL14">
-        <v>1.4</v>
-      </c>
-      <c r="AM14">
-        <v>1.4</v>
-      </c>
-      <c r="AN14">
+      <c r="E14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="K14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="L14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="U14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="V14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="W14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Y14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Z14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AA14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AB14" s="11"/>
+      <c r="AC14" s="11"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AF14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AG14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AH14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AI14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AK14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AL14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AM14" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AN14" s="11">
         <v>1.4</v>
       </c>
       <c r="AW14" s="7"/>
@@ -6142,94 +6192,100 @@
         <v>13</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="E15">
-        <v>1.4</v>
-      </c>
-      <c r="F15">
-        <v>1.4</v>
-      </c>
-      <c r="G15">
-        <v>1.4</v>
-      </c>
-      <c r="H15">
-        <v>1.4</v>
-      </c>
-      <c r="I15">
-        <v>1.4</v>
-      </c>
-      <c r="J15">
-        <v>1.4</v>
-      </c>
-      <c r="K15">
-        <v>1.4</v>
-      </c>
-      <c r="L15">
-        <v>1.4</v>
-      </c>
-      <c r="M15">
-        <v>1.4</v>
-      </c>
-      <c r="N15">
-        <v>1.4</v>
-      </c>
-      <c r="R15">
-        <v>1.4</v>
-      </c>
-      <c r="S15">
-        <v>1.4</v>
-      </c>
-      <c r="T15">
-        <v>1.4</v>
-      </c>
-      <c r="U15">
-        <v>1.4</v>
-      </c>
-      <c r="V15">
-        <v>1.4</v>
-      </c>
-      <c r="W15">
-        <v>1.4</v>
-      </c>
-      <c r="X15">
-        <v>1.4</v>
-      </c>
-      <c r="Y15">
-        <v>1.4</v>
-      </c>
-      <c r="Z15">
-        <v>1.4</v>
-      </c>
-      <c r="AA15">
-        <v>1.4</v>
-      </c>
-      <c r="AE15">
-        <v>1.4</v>
-      </c>
-      <c r="AF15">
-        <v>1.4</v>
-      </c>
-      <c r="AG15">
-        <v>1.4</v>
-      </c>
-      <c r="AH15">
-        <v>1.4</v>
-      </c>
-      <c r="AI15">
-        <v>1.4</v>
-      </c>
-      <c r="AJ15">
-        <v>1.4</v>
-      </c>
-      <c r="AK15">
-        <v>1.4</v>
-      </c>
-      <c r="AL15">
-        <v>1.4</v>
-      </c>
-      <c r="AM15">
-        <v>1.4</v>
-      </c>
-      <c r="AN15">
+      <c r="E15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="K15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="L15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="U15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="V15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="W15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Y15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AB15" s="11"/>
+      <c r="AC15" s="11"/>
+      <c r="AD15" s="11"/>
+      <c r="AE15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AN15" s="11">
         <v>1.4</v>
       </c>
       <c r="AW15" s="7"/>
@@ -6239,94 +6295,100 @@
         <v>14</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="E16">
-        <v>1.4</v>
-      </c>
-      <c r="F16">
-        <v>1.4</v>
-      </c>
-      <c r="G16">
-        <v>1.4</v>
-      </c>
-      <c r="H16">
-        <v>1.4</v>
-      </c>
-      <c r="I16">
-        <v>1.4</v>
-      </c>
-      <c r="J16">
-        <v>1.4</v>
-      </c>
-      <c r="K16">
-        <v>1.4</v>
-      </c>
-      <c r="L16">
-        <v>1.4</v>
-      </c>
-      <c r="M16">
-        <v>1.4</v>
-      </c>
-      <c r="N16">
-        <v>1.4</v>
-      </c>
-      <c r="R16">
-        <v>1.4</v>
-      </c>
-      <c r="S16">
-        <v>1.4</v>
-      </c>
-      <c r="T16">
-        <v>1.4</v>
-      </c>
-      <c r="U16">
-        <v>1.4</v>
-      </c>
-      <c r="V16">
-        <v>1.4</v>
-      </c>
-      <c r="W16">
-        <v>1.4</v>
-      </c>
-      <c r="X16">
-        <v>1.4</v>
-      </c>
-      <c r="Y16">
-        <v>1.4</v>
-      </c>
-      <c r="Z16">
-        <v>1.4</v>
-      </c>
-      <c r="AA16">
-        <v>1.4</v>
-      </c>
-      <c r="AE16">
-        <v>1.4</v>
-      </c>
-      <c r="AF16">
-        <v>1.4</v>
-      </c>
-      <c r="AG16">
-        <v>1.4</v>
-      </c>
-      <c r="AH16">
-        <v>1.4</v>
-      </c>
-      <c r="AI16">
-        <v>1.4</v>
-      </c>
-      <c r="AJ16">
-        <v>1.4</v>
-      </c>
-      <c r="AK16">
-        <v>1.4</v>
-      </c>
-      <c r="AL16">
-        <v>1.4</v>
-      </c>
-      <c r="AM16">
-        <v>1.4</v>
-      </c>
-      <c r="AN16">
+      <c r="E16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="K16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="L16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="U16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="V16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="W16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Y16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Z16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="11"/>
+      <c r="AD16" s="11"/>
+      <c r="AE16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AF16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AG16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AH16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AI16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AK16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AL16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AM16" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AN16" s="11">
         <v>1.4</v>
       </c>
       <c r="AW16" s="7"/>
@@ -6336,94 +6398,100 @@
         <v>15</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="E17">
-        <v>1.4</v>
-      </c>
-      <c r="F17">
-        <v>1.4</v>
-      </c>
-      <c r="G17">
-        <v>1.4</v>
-      </c>
-      <c r="H17">
-        <v>1.4</v>
-      </c>
-      <c r="I17">
-        <v>1.4</v>
-      </c>
-      <c r="J17">
-        <v>1.4</v>
-      </c>
-      <c r="K17">
-        <v>1.4</v>
-      </c>
-      <c r="L17">
-        <v>1.4</v>
-      </c>
-      <c r="M17">
-        <v>1.4</v>
-      </c>
-      <c r="N17">
-        <v>1.4</v>
-      </c>
-      <c r="R17">
-        <v>1.4</v>
-      </c>
-      <c r="S17">
-        <v>1.4</v>
-      </c>
-      <c r="T17">
-        <v>1.4</v>
-      </c>
-      <c r="U17">
-        <v>1.4</v>
-      </c>
-      <c r="V17">
-        <v>1.4</v>
-      </c>
-      <c r="W17">
-        <v>1.4</v>
-      </c>
-      <c r="X17">
-        <v>1.4</v>
-      </c>
-      <c r="Y17">
-        <v>1.4</v>
-      </c>
-      <c r="Z17">
-        <v>1.4</v>
-      </c>
-      <c r="AA17">
-        <v>1.4</v>
-      </c>
-      <c r="AE17">
-        <v>1.4</v>
-      </c>
-      <c r="AF17">
-        <v>1.4</v>
-      </c>
-      <c r="AG17">
-        <v>1.4</v>
-      </c>
-      <c r="AH17">
-        <v>1.4</v>
-      </c>
-      <c r="AI17">
-        <v>1.4</v>
-      </c>
-      <c r="AJ17">
-        <v>1.4</v>
-      </c>
-      <c r="AK17">
-        <v>1.4</v>
-      </c>
-      <c r="AL17">
-        <v>1.4</v>
-      </c>
-      <c r="AM17">
-        <v>1.4</v>
-      </c>
-      <c r="AN17">
+      <c r="E17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="G17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="H17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="I17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="K17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="L17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="M17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="N17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="S17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="T17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="U17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="V17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="W17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="X17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Y17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="Z17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AA17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AB17" s="11"/>
+      <c r="AC17" s="11"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AF17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AG17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AH17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AJ17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AK17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AL17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AM17" s="11">
+        <v>1.4</v>
+      </c>
+      <c r="AN17" s="11">
         <v>1.4</v>
       </c>
       <c r="AW17" s="7"/>
@@ -6834,94 +6902,100 @@
         <v>6</v>
       </c>
       <c r="B41" s="6"/>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
+      <c r="E41" s="12">
+        <v>0</v>
+      </c>
+      <c r="F41" s="12">
         <v>0.03</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="12">
         <v>0.06</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="12">
         <v>0.09</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="12">
         <v>0.12</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="12">
         <v>0.15</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="12">
         <v>0.18</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="12">
         <v>0.21</v>
       </c>
-      <c r="M41">
+      <c r="M41" s="12">
         <v>0.24</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="12">
         <v>0.27</v>
       </c>
-      <c r="R41">
-        <v>0</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>0</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>0</v>
-      </c>
-      <c r="AF41">
+      <c r="O41" s="12"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12">
+        <v>0</v>
+      </c>
+      <c r="S41" s="12">
+        <v>0</v>
+      </c>
+      <c r="T41" s="12">
+        <v>0</v>
+      </c>
+      <c r="U41" s="12">
+        <v>0</v>
+      </c>
+      <c r="V41" s="12">
+        <v>0</v>
+      </c>
+      <c r="W41" s="12">
+        <v>0</v>
+      </c>
+      <c r="X41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="12"/>
+      <c r="AC41" s="12"/>
+      <c r="AD41" s="12"/>
+      <c r="AE41" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG41">
+      <c r="AG41" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH41">
+      <c r="AH41" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI41">
+      <c r="AI41" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ41">
+      <c r="AJ41" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK41">
+      <c r="AK41" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL41">
+      <c r="AL41" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM41">
+      <c r="AM41" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN41">
+      <c r="AN41" s="12">
         <v>0.27</v>
       </c>
       <c r="AW41" s="7"/>
@@ -6931,94 +7005,100 @@
         <v>7</v>
       </c>
       <c r="B42" s="6"/>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="E42" s="12">
+        <v>0</v>
+      </c>
+      <c r="F42" s="12">
         <v>0.03</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="12">
         <v>0.06</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="12">
         <v>0.09</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="12">
         <v>0.12</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="12">
         <v>0.15</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="12">
         <v>0.18</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="12">
         <v>0.21</v>
       </c>
-      <c r="M42">
+      <c r="M42" s="12">
         <v>0.24</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="12">
         <v>0.27</v>
       </c>
-      <c r="R42">
-        <v>0</v>
-      </c>
-      <c r="S42">
-        <v>0</v>
-      </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-      <c r="AE42">
-        <v>0</v>
-      </c>
-      <c r="AF42">
+      <c r="O42" s="12"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12">
+        <v>0</v>
+      </c>
+      <c r="S42" s="12">
+        <v>0</v>
+      </c>
+      <c r="T42" s="12">
+        <v>0</v>
+      </c>
+      <c r="U42" s="12">
+        <v>0</v>
+      </c>
+      <c r="V42" s="12">
+        <v>0</v>
+      </c>
+      <c r="W42" s="12">
+        <v>0</v>
+      </c>
+      <c r="X42" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="12"/>
+      <c r="AC42" s="12"/>
+      <c r="AD42" s="12"/>
+      <c r="AE42" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG42">
+      <c r="AG42" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH42">
+      <c r="AH42" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI42">
+      <c r="AI42" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ42">
+      <c r="AJ42" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK42">
+      <c r="AK42" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL42">
+      <c r="AL42" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM42">
+      <c r="AM42" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN42">
+      <c r="AN42" s="12">
         <v>0.27</v>
       </c>
       <c r="AW42" s="7"/>
@@ -7028,94 +7108,100 @@
         <v>8</v>
       </c>
       <c r="B43" s="6"/>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
+      <c r="E43" s="12">
+        <v>0</v>
+      </c>
+      <c r="F43" s="12">
         <v>0.03</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="12">
         <v>0.06</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="12">
         <v>0.09</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="12">
         <v>0.12</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="12">
         <v>0.15</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="12">
         <v>0.18</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="12">
         <v>0.21</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="12">
         <v>0.24</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="12">
         <v>0.27</v>
       </c>
-      <c r="R43">
-        <v>0</v>
-      </c>
-      <c r="S43">
-        <v>0</v>
-      </c>
-      <c r="T43">
-        <v>0</v>
-      </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-      <c r="AE43">
-        <v>0</v>
-      </c>
-      <c r="AF43">
+      <c r="O43" s="12"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12">
+        <v>0</v>
+      </c>
+      <c r="S43" s="12">
+        <v>0</v>
+      </c>
+      <c r="T43" s="12">
+        <v>0</v>
+      </c>
+      <c r="U43" s="12">
+        <v>0</v>
+      </c>
+      <c r="V43" s="12">
+        <v>0</v>
+      </c>
+      <c r="W43" s="12">
+        <v>0</v>
+      </c>
+      <c r="X43" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG43">
+      <c r="AG43" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH43">
+      <c r="AH43" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI43">
+      <c r="AI43" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ43">
+      <c r="AJ43" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK43">
+      <c r="AK43" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL43">
+      <c r="AL43" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM43">
+      <c r="AM43" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN43">
+      <c r="AN43" s="12">
         <v>0.27</v>
       </c>
       <c r="AW43" s="7"/>
@@ -7125,94 +7211,100 @@
         <v>9</v>
       </c>
       <c r="B44" s="6"/>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
         <v>0.03</v>
       </c>
-      <c r="G44">
+      <c r="G44" s="12">
         <v>0.06</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="12">
         <v>0.09</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="12">
         <v>0.12</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="12">
         <v>0.15</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="12">
         <v>0.18</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="12">
         <v>0.21</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="12">
         <v>0.24</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="12">
         <v>0.27</v>
       </c>
-      <c r="R44">
-        <v>0</v>
-      </c>
-      <c r="S44">
-        <v>0</v>
-      </c>
-      <c r="T44">
-        <v>0</v>
-      </c>
-      <c r="U44">
-        <v>0</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
-      </c>
-      <c r="Y44">
-        <v>0</v>
-      </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AE44">
-        <v>0</v>
-      </c>
-      <c r="AF44">
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12">
+        <v>0</v>
+      </c>
+      <c r="S44" s="12">
+        <v>0</v>
+      </c>
+      <c r="T44" s="12">
+        <v>0</v>
+      </c>
+      <c r="U44" s="12">
+        <v>0</v>
+      </c>
+      <c r="V44" s="12">
+        <v>0</v>
+      </c>
+      <c r="W44" s="12">
+        <v>0</v>
+      </c>
+      <c r="X44" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG44">
+      <c r="AG44" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH44">
+      <c r="AH44" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI44">
+      <c r="AI44" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ44">
+      <c r="AJ44" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK44">
+      <c r="AK44" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL44">
+      <c r="AL44" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM44">
+      <c r="AM44" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN44">
+      <c r="AN44" s="12">
         <v>0.27</v>
       </c>
       <c r="AW44" s="7"/>
@@ -7222,94 +7314,100 @@
         <v>10</v>
       </c>
       <c r="B45" s="6"/>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
+      <c r="E45" s="12">
+        <v>0</v>
+      </c>
+      <c r="F45" s="12">
         <v>0.03</v>
       </c>
-      <c r="G45">
+      <c r="G45" s="12">
         <v>0.06</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="12">
         <v>0.09</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="12">
         <v>0.12</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="12">
         <v>0.15</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="12">
         <v>0.18</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="12">
         <v>0.21</v>
       </c>
-      <c r="M45">
+      <c r="M45" s="12">
         <v>0.24</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="12">
         <v>0.27</v>
       </c>
-      <c r="R45">
-        <v>0</v>
-      </c>
-      <c r="S45">
-        <v>0</v>
-      </c>
-      <c r="T45">
-        <v>0</v>
-      </c>
-      <c r="U45">
-        <v>0</v>
-      </c>
-      <c r="V45">
-        <v>0</v>
-      </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
-      </c>
-      <c r="Y45">
-        <v>0</v>
-      </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-      <c r="AE45">
-        <v>0</v>
-      </c>
-      <c r="AF45">
+      <c r="O45" s="12"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12">
+        <v>0</v>
+      </c>
+      <c r="S45" s="12">
+        <v>0</v>
+      </c>
+      <c r="T45" s="12">
+        <v>0</v>
+      </c>
+      <c r="U45" s="12">
+        <v>0</v>
+      </c>
+      <c r="V45" s="12">
+        <v>0</v>
+      </c>
+      <c r="W45" s="12">
+        <v>0</v>
+      </c>
+      <c r="X45" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="12"/>
+      <c r="AC45" s="12"/>
+      <c r="AD45" s="12"/>
+      <c r="AE45" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG45">
+      <c r="AG45" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH45">
+      <c r="AH45" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI45">
+      <c r="AI45" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ45">
+      <c r="AJ45" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK45">
+      <c r="AK45" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL45">
+      <c r="AL45" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM45">
+      <c r="AM45" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN45">
+      <c r="AN45" s="12">
         <v>0.27</v>
       </c>
       <c r="AW45" s="7"/>
@@ -7319,94 +7417,100 @@
         <v>11</v>
       </c>
       <c r="B46" s="6"/>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
+      <c r="E46" s="12">
+        <v>0</v>
+      </c>
+      <c r="F46" s="12">
         <v>0.03</v>
       </c>
-      <c r="G46">
+      <c r="G46" s="12">
         <v>0.06</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="12">
         <v>0.09</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="12">
         <v>0.12</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="12">
         <v>0.15</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="12">
         <v>0.18</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="12">
         <v>0.21</v>
       </c>
-      <c r="M46">
+      <c r="M46" s="12">
         <v>0.24</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="12">
         <v>0.27</v>
       </c>
-      <c r="R46">
-        <v>0</v>
-      </c>
-      <c r="S46">
-        <v>0</v>
-      </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
-      <c r="U46">
-        <v>0</v>
-      </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
-      </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-      <c r="AE46">
-        <v>0</v>
-      </c>
-      <c r="AF46">
+      <c r="O46" s="12"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12">
+        <v>0</v>
+      </c>
+      <c r="S46" s="12">
+        <v>0</v>
+      </c>
+      <c r="T46" s="12">
+        <v>0</v>
+      </c>
+      <c r="U46" s="12">
+        <v>0</v>
+      </c>
+      <c r="V46" s="12">
+        <v>0</v>
+      </c>
+      <c r="W46" s="12">
+        <v>0</v>
+      </c>
+      <c r="X46" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
+      <c r="AE46" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG46">
+      <c r="AG46" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH46">
+      <c r="AH46" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI46">
+      <c r="AI46" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ46">
+      <c r="AJ46" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK46">
+      <c r="AK46" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL46">
+      <c r="AL46" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM46">
+      <c r="AM46" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN46">
+      <c r="AN46" s="12">
         <v>0.27</v>
       </c>
       <c r="AW46" s="7"/>
@@ -7416,94 +7520,100 @@
         <v>12</v>
       </c>
       <c r="B47" s="6"/>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="12">
+        <v>0</v>
+      </c>
+      <c r="F47" s="12">
         <v>0.03</v>
       </c>
-      <c r="G47">
+      <c r="G47" s="12">
         <v>0.06</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="12">
         <v>0.09</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="12">
         <v>0.12</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="12">
         <v>0.15</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="12">
         <v>0.18</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="12">
         <v>0.21</v>
       </c>
-      <c r="M47">
+      <c r="M47" s="12">
         <v>0.24</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="12">
         <v>0.27</v>
       </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
+      <c r="O47" s="12"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12">
+        <v>0</v>
+      </c>
+      <c r="S47" s="12">
+        <v>0</v>
+      </c>
+      <c r="T47" s="12">
+        <v>0</v>
+      </c>
+      <c r="U47" s="12">
+        <v>0</v>
+      </c>
+      <c r="V47" s="12">
+        <v>0</v>
+      </c>
+      <c r="W47" s="12">
+        <v>0</v>
+      </c>
+      <c r="X47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="12"/>
+      <c r="AC47" s="12"/>
+      <c r="AD47" s="12"/>
+      <c r="AE47" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG47">
+      <c r="AG47" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH47">
+      <c r="AH47" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI47">
+      <c r="AI47" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ47">
+      <c r="AJ47" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK47">
+      <c r="AK47" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL47">
+      <c r="AL47" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM47">
+      <c r="AM47" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN47">
+      <c r="AN47" s="12">
         <v>0.27</v>
       </c>
       <c r="AW47" s="7"/>
@@ -7513,94 +7623,100 @@
         <v>13</v>
       </c>
       <c r="B48" s="6"/>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
         <v>0.03</v>
       </c>
-      <c r="G48">
+      <c r="G48" s="12">
         <v>0.06</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="12">
         <v>0.09</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="12">
         <v>0.12</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="12">
         <v>0.15</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="12">
         <v>0.18</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="12">
         <v>0.21</v>
       </c>
-      <c r="M48">
+      <c r="M48" s="12">
         <v>0.24</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="12">
         <v>0.27</v>
       </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
+      <c r="O48" s="12"/>
+      <c r="P48" s="12"/>
+      <c r="Q48" s="12"/>
+      <c r="R48" s="12">
+        <v>0</v>
+      </c>
+      <c r="S48" s="12">
+        <v>0</v>
+      </c>
+      <c r="T48" s="12">
+        <v>0</v>
+      </c>
+      <c r="U48" s="12">
+        <v>0</v>
+      </c>
+      <c r="V48" s="12">
+        <v>0</v>
+      </c>
+      <c r="W48" s="12">
+        <v>0</v>
+      </c>
+      <c r="X48" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="12"/>
+      <c r="AC48" s="12"/>
+      <c r="AD48" s="12"/>
+      <c r="AE48" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG48">
+      <c r="AG48" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH48">
+      <c r="AH48" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI48">
+      <c r="AI48" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ48">
+      <c r="AJ48" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK48">
+      <c r="AK48" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL48">
+      <c r="AL48" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM48">
+      <c r="AM48" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN48">
+      <c r="AN48" s="12">
         <v>0.27</v>
       </c>
       <c r="AW48" s="7"/>
@@ -7610,94 +7726,100 @@
         <v>14</v>
       </c>
       <c r="B49" s="6"/>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="12">
+        <v>0</v>
+      </c>
+      <c r="F49" s="12">
         <v>0.03</v>
       </c>
-      <c r="G49">
+      <c r="G49" s="12">
         <v>0.06</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="12">
         <v>0.09</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="12">
         <v>0.12</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="12">
         <v>0.15</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="12">
         <v>0.18</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="12">
         <v>0.21</v>
       </c>
-      <c r="M49">
+      <c r="M49" s="12">
         <v>0.24</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="12">
         <v>0.27</v>
       </c>
-      <c r="R49">
-        <v>0</v>
-      </c>
-      <c r="S49">
-        <v>0</v>
-      </c>
-      <c r="T49">
-        <v>0</v>
-      </c>
-      <c r="U49">
-        <v>0</v>
-      </c>
-      <c r="V49">
-        <v>0</v>
-      </c>
-      <c r="W49">
-        <v>0</v>
-      </c>
-      <c r="X49">
-        <v>0</v>
-      </c>
-      <c r="Y49">
-        <v>0</v>
-      </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-      <c r="AE49">
-        <v>0</v>
-      </c>
-      <c r="AF49">
+      <c r="O49" s="12"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12">
+        <v>0</v>
+      </c>
+      <c r="S49" s="12">
+        <v>0</v>
+      </c>
+      <c r="T49" s="12">
+        <v>0</v>
+      </c>
+      <c r="U49" s="12">
+        <v>0</v>
+      </c>
+      <c r="V49" s="12">
+        <v>0</v>
+      </c>
+      <c r="W49" s="12">
+        <v>0</v>
+      </c>
+      <c r="X49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="12"/>
+      <c r="AC49" s="12"/>
+      <c r="AD49" s="12"/>
+      <c r="AE49" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG49">
+      <c r="AG49" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH49">
+      <c r="AH49" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI49">
+      <c r="AI49" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ49">
+      <c r="AJ49" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK49">
+      <c r="AK49" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL49">
+      <c r="AL49" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM49">
+      <c r="AM49" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN49">
+      <c r="AN49" s="12">
         <v>0.27</v>
       </c>
       <c r="AW49" s="7"/>
@@ -7707,94 +7829,100 @@
         <v>15</v>
       </c>
       <c r="B50" s="6"/>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
+      <c r="E50" s="12">
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
         <v>0.03</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="12">
         <v>0.06</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="12">
         <v>0.09</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="12">
         <v>0.12</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="12">
         <v>0.15</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="12">
         <v>0.18</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="12">
         <v>0.21</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="12">
         <v>0.24</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="12">
         <v>0.27</v>
       </c>
-      <c r="R50">
-        <v>0</v>
-      </c>
-      <c r="S50">
-        <v>0</v>
-      </c>
-      <c r="T50">
-        <v>0</v>
-      </c>
-      <c r="U50">
-        <v>0</v>
-      </c>
-      <c r="V50">
-        <v>0</v>
-      </c>
-      <c r="W50">
-        <v>0</v>
-      </c>
-      <c r="X50">
-        <v>0</v>
-      </c>
-      <c r="Y50">
-        <v>0</v>
-      </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-      <c r="AE50">
-        <v>0</v>
-      </c>
-      <c r="AF50">
+      <c r="O50" s="12"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12">
+        <v>0</v>
+      </c>
+      <c r="S50" s="12">
+        <v>0</v>
+      </c>
+      <c r="T50" s="12">
+        <v>0</v>
+      </c>
+      <c r="U50" s="12">
+        <v>0</v>
+      </c>
+      <c r="V50" s="12">
+        <v>0</v>
+      </c>
+      <c r="W50" s="12">
+        <v>0</v>
+      </c>
+      <c r="X50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="12"/>
+      <c r="AC50" s="12"/>
+      <c r="AD50" s="12"/>
+      <c r="AE50" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG50">
+      <c r="AG50" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH50">
+      <c r="AH50" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI50">
+      <c r="AI50" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ50">
+      <c r="AJ50" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK50">
+      <c r="AK50" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL50">
+      <c r="AL50" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM50">
+      <c r="AM50" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN50">
+      <c r="AN50" s="12">
         <v>0.27</v>
       </c>
       <c r="AW50" s="7"/>
@@ -8205,94 +8333,100 @@
         <v>6</v>
       </c>
       <c r="B74" s="6"/>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="R74">
-        <v>0</v>
-      </c>
-      <c r="S74">
-        <v>0</v>
-      </c>
-      <c r="T74">
-        <v>0</v>
-      </c>
-      <c r="U74">
-        <v>0</v>
-      </c>
-      <c r="V74">
-        <v>0</v>
-      </c>
-      <c r="W74">
-        <v>0</v>
-      </c>
-      <c r="X74">
-        <v>0</v>
-      </c>
-      <c r="Y74">
-        <v>0</v>
-      </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-      <c r="AE74">
-        <v>0</v>
-      </c>
-      <c r="AF74">
-        <v>0</v>
-      </c>
-      <c r="AG74">
-        <v>0</v>
-      </c>
-      <c r="AH74">
-        <v>0</v>
-      </c>
-      <c r="AI74">
-        <v>0</v>
-      </c>
-      <c r="AJ74">
-        <v>0</v>
-      </c>
-      <c r="AK74">
-        <v>0</v>
-      </c>
-      <c r="AL74">
-        <v>0</v>
-      </c>
-      <c r="AM74">
-        <v>0</v>
-      </c>
-      <c r="AN74">
+      <c r="E74" s="12">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12">
+        <v>0</v>
+      </c>
+      <c r="G74" s="12">
+        <v>0</v>
+      </c>
+      <c r="H74" s="12">
+        <v>0</v>
+      </c>
+      <c r="I74" s="12">
+        <v>0</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+      <c r="K74" s="12">
+        <v>0</v>
+      </c>
+      <c r="L74" s="12">
+        <v>0</v>
+      </c>
+      <c r="M74" s="12">
+        <v>0</v>
+      </c>
+      <c r="N74" s="12">
+        <v>0</v>
+      </c>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12">
+        <v>0</v>
+      </c>
+      <c r="S74" s="12">
+        <v>0</v>
+      </c>
+      <c r="T74" s="12">
+        <v>0</v>
+      </c>
+      <c r="U74" s="12">
+        <v>0</v>
+      </c>
+      <c r="V74" s="12">
+        <v>0</v>
+      </c>
+      <c r="W74" s="12">
+        <v>0</v>
+      </c>
+      <c r="X74" s="12">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AJ74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="12">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="12">
         <v>0</v>
       </c>
       <c r="AW74" s="7"/>
@@ -8302,94 +8436,100 @@
         <v>7</v>
       </c>
       <c r="B75" s="6"/>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <v>0</v>
-      </c>
-      <c r="R75">
+      <c r="E75" s="12">
+        <v>0</v>
+      </c>
+      <c r="F75" s="12">
+        <v>0</v>
+      </c>
+      <c r="G75" s="12">
+        <v>0</v>
+      </c>
+      <c r="H75" s="12">
+        <v>0</v>
+      </c>
+      <c r="I75" s="12">
+        <v>0</v>
+      </c>
+      <c r="J75" s="12">
+        <v>0</v>
+      </c>
+      <c r="K75" s="12">
+        <v>0</v>
+      </c>
+      <c r="L75" s="12">
+        <v>0</v>
+      </c>
+      <c r="M75" s="12">
+        <v>0</v>
+      </c>
+      <c r="N75" s="12">
+        <v>0</v>
+      </c>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12">
         <v>0.03</v>
       </c>
-      <c r="S75">
+      <c r="S75" s="12">
         <v>0.03</v>
       </c>
-      <c r="T75">
+      <c r="T75" s="12">
         <v>0.03</v>
       </c>
-      <c r="U75">
+      <c r="U75" s="12">
         <v>0.03</v>
       </c>
-      <c r="V75">
+      <c r="V75" s="12">
         <v>0.03</v>
       </c>
-      <c r="W75">
+      <c r="W75" s="12">
         <v>0.03</v>
       </c>
-      <c r="X75">
+      <c r="X75" s="12">
         <v>0.03</v>
       </c>
-      <c r="Y75">
+      <c r="Y75" s="12">
         <v>0.03</v>
       </c>
-      <c r="Z75">
+      <c r="Z75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AA75">
+      <c r="AA75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AE75">
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="12"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AF75">
+      <c r="AF75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AG75">
+      <c r="AG75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AH75">
+      <c r="AH75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AI75">
+      <c r="AI75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AJ75">
+      <c r="AJ75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AK75">
+      <c r="AK75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AL75">
+      <c r="AL75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AM75">
+      <c r="AM75" s="12">
         <v>0.03</v>
       </c>
-      <c r="AN75">
+      <c r="AN75" s="12">
         <v>0.03</v>
       </c>
       <c r="AW75" s="7"/>
@@ -8399,94 +8539,100 @@
         <v>8</v>
       </c>
       <c r="B76" s="6"/>
-      <c r="E76">
-        <v>0</v>
-      </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <v>0</v>
-      </c>
-      <c r="H76">
-        <v>0</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>0</v>
-      </c>
-      <c r="L76">
-        <v>0</v>
-      </c>
-      <c r="M76">
-        <v>0</v>
-      </c>
-      <c r="N76">
-        <v>0</v>
-      </c>
-      <c r="R76">
+      <c r="E76" s="12">
+        <v>0</v>
+      </c>
+      <c r="F76" s="12">
+        <v>0</v>
+      </c>
+      <c r="G76" s="12">
+        <v>0</v>
+      </c>
+      <c r="H76" s="12">
+        <v>0</v>
+      </c>
+      <c r="I76" s="12">
+        <v>0</v>
+      </c>
+      <c r="J76" s="12">
+        <v>0</v>
+      </c>
+      <c r="K76" s="12">
+        <v>0</v>
+      </c>
+      <c r="L76" s="12">
+        <v>0</v>
+      </c>
+      <c r="M76" s="12">
+        <v>0</v>
+      </c>
+      <c r="N76" s="12">
+        <v>0</v>
+      </c>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12">
         <v>0.06</v>
       </c>
-      <c r="S76">
+      <c r="S76" s="12">
         <v>0.06</v>
       </c>
-      <c r="T76">
+      <c r="T76" s="12">
         <v>0.06</v>
       </c>
-      <c r="U76">
+      <c r="U76" s="12">
         <v>0.06</v>
       </c>
-      <c r="V76">
+      <c r="V76" s="12">
         <v>0.06</v>
       </c>
-      <c r="W76">
+      <c r="W76" s="12">
         <v>0.06</v>
       </c>
-      <c r="X76">
+      <c r="X76" s="12">
         <v>0.06</v>
       </c>
-      <c r="Y76">
+      <c r="Y76" s="12">
         <v>0.06</v>
       </c>
-      <c r="Z76">
+      <c r="Z76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AA76">
+      <c r="AA76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AE76">
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="12"/>
+      <c r="AD76" s="12"/>
+      <c r="AE76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AF76">
+      <c r="AF76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AG76">
+      <c r="AG76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AH76">
+      <c r="AH76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AI76">
+      <c r="AI76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AJ76">
+      <c r="AJ76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AK76">
+      <c r="AK76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AL76">
+      <c r="AL76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AM76">
+      <c r="AM76" s="12">
         <v>0.06</v>
       </c>
-      <c r="AN76">
+      <c r="AN76" s="12">
         <v>0.06</v>
       </c>
       <c r="AW76" s="7"/>
@@ -8496,94 +8642,100 @@
         <v>9</v>
       </c>
       <c r="B77" s="6"/>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-      <c r="H77">
-        <v>0</v>
-      </c>
-      <c r="I77">
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <v>0</v>
-      </c>
-      <c r="R77">
+      <c r="E77" s="12">
+        <v>0</v>
+      </c>
+      <c r="F77" s="12">
+        <v>0</v>
+      </c>
+      <c r="G77" s="12">
+        <v>0</v>
+      </c>
+      <c r="H77" s="12">
+        <v>0</v>
+      </c>
+      <c r="I77" s="12">
+        <v>0</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0</v>
+      </c>
+      <c r="K77" s="12">
+        <v>0</v>
+      </c>
+      <c r="L77" s="12">
+        <v>0</v>
+      </c>
+      <c r="M77" s="12">
+        <v>0</v>
+      </c>
+      <c r="N77" s="12">
+        <v>0</v>
+      </c>
+      <c r="O77" s="12"/>
+      <c r="P77" s="12"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="12">
         <v>0.09</v>
       </c>
-      <c r="S77">
+      <c r="S77" s="12">
         <v>0.09</v>
       </c>
-      <c r="T77">
+      <c r="T77" s="12">
         <v>0.09</v>
       </c>
-      <c r="U77">
+      <c r="U77" s="12">
         <v>0.09</v>
       </c>
-      <c r="V77">
+      <c r="V77" s="12">
         <v>0.09</v>
       </c>
-      <c r="W77">
+      <c r="W77" s="12">
         <v>0.09</v>
       </c>
-      <c r="X77">
+      <c r="X77" s="12">
         <v>0.09</v>
       </c>
-      <c r="Y77">
+      <c r="Y77" s="12">
         <v>0.09</v>
       </c>
-      <c r="Z77">
+      <c r="Z77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AA77">
+      <c r="AA77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AE77">
+      <c r="AB77" s="12"/>
+      <c r="AC77" s="12"/>
+      <c r="AD77" s="12"/>
+      <c r="AE77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AF77">
+      <c r="AF77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AG77">
+      <c r="AG77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AH77">
+      <c r="AH77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AI77">
+      <c r="AI77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AJ77">
+      <c r="AJ77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AK77">
+      <c r="AK77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AL77">
+      <c r="AL77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AM77">
+      <c r="AM77" s="12">
         <v>0.09</v>
       </c>
-      <c r="AN77">
+      <c r="AN77" s="12">
         <v>0.09</v>
       </c>
       <c r="AW77" s="7"/>
@@ -8593,94 +8745,100 @@
         <v>10</v>
       </c>
       <c r="B78" s="6"/>
-      <c r="E78">
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <v>0</v>
-      </c>
-      <c r="R78">
+      <c r="E78" s="12">
+        <v>0</v>
+      </c>
+      <c r="F78" s="12">
+        <v>0</v>
+      </c>
+      <c r="G78" s="12">
+        <v>0</v>
+      </c>
+      <c r="H78" s="12">
+        <v>0</v>
+      </c>
+      <c r="I78" s="12">
+        <v>0</v>
+      </c>
+      <c r="J78" s="12">
+        <v>0</v>
+      </c>
+      <c r="K78" s="12">
+        <v>0</v>
+      </c>
+      <c r="L78" s="12">
+        <v>0</v>
+      </c>
+      <c r="M78" s="12">
+        <v>0</v>
+      </c>
+      <c r="N78" s="12">
+        <v>0</v>
+      </c>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12">
         <v>0.12</v>
       </c>
-      <c r="S78">
+      <c r="S78" s="12">
         <v>0.12</v>
       </c>
-      <c r="T78">
+      <c r="T78" s="12">
         <v>0.12</v>
       </c>
-      <c r="U78">
+      <c r="U78" s="12">
         <v>0.12</v>
       </c>
-      <c r="V78">
+      <c r="V78" s="12">
         <v>0.12</v>
       </c>
-      <c r="W78">
+      <c r="W78" s="12">
         <v>0.12</v>
       </c>
-      <c r="X78">
+      <c r="X78" s="12">
         <v>0.12</v>
       </c>
-      <c r="Y78">
+      <c r="Y78" s="12">
         <v>0.12</v>
       </c>
-      <c r="Z78">
+      <c r="Z78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AA78">
+      <c r="AA78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AE78">
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="12"/>
+      <c r="AD78" s="12"/>
+      <c r="AE78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AF78">
+      <c r="AF78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AG78">
+      <c r="AG78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AH78">
+      <c r="AH78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AI78">
+      <c r="AI78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AJ78">
+      <c r="AJ78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AK78">
+      <c r="AK78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AL78">
+      <c r="AL78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AM78">
+      <c r="AM78" s="12">
         <v>0.12</v>
       </c>
-      <c r="AN78">
+      <c r="AN78" s="12">
         <v>0.12</v>
       </c>
       <c r="AW78" s="7"/>
@@ -8690,94 +8848,100 @@
         <v>11</v>
       </c>
       <c r="B79" s="6"/>
-      <c r="E79">
-        <v>0</v>
-      </c>
-      <c r="F79">
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <v>0</v>
-      </c>
-      <c r="H79">
-        <v>0</v>
-      </c>
-      <c r="I79">
-        <v>0</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>0</v>
-      </c>
-      <c r="L79">
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <v>0</v>
-      </c>
-      <c r="N79">
-        <v>0</v>
-      </c>
-      <c r="R79">
+      <c r="E79" s="12">
+        <v>0</v>
+      </c>
+      <c r="F79" s="12">
+        <v>0</v>
+      </c>
+      <c r="G79" s="12">
+        <v>0</v>
+      </c>
+      <c r="H79" s="12">
+        <v>0</v>
+      </c>
+      <c r="I79" s="12">
+        <v>0</v>
+      </c>
+      <c r="J79" s="12">
+        <v>0</v>
+      </c>
+      <c r="K79" s="12">
+        <v>0</v>
+      </c>
+      <c r="L79" s="12">
+        <v>0</v>
+      </c>
+      <c r="M79" s="12">
+        <v>0</v>
+      </c>
+      <c r="N79" s="12">
+        <v>0</v>
+      </c>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12">
         <v>0.15</v>
       </c>
-      <c r="S79">
+      <c r="S79" s="12">
         <v>0.15</v>
       </c>
-      <c r="T79">
+      <c r="T79" s="12">
         <v>0.15</v>
       </c>
-      <c r="U79">
+      <c r="U79" s="12">
         <v>0.15</v>
       </c>
-      <c r="V79">
+      <c r="V79" s="12">
         <v>0.15</v>
       </c>
-      <c r="W79">
+      <c r="W79" s="12">
         <v>0.15</v>
       </c>
-      <c r="X79">
+      <c r="X79" s="12">
         <v>0.15</v>
       </c>
-      <c r="Y79">
+      <c r="Y79" s="12">
         <v>0.15</v>
       </c>
-      <c r="Z79">
+      <c r="Z79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AA79">
+      <c r="AA79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AE79">
+      <c r="AB79" s="12"/>
+      <c r="AC79" s="12"/>
+      <c r="AD79" s="12"/>
+      <c r="AE79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AF79">
+      <c r="AF79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AG79">
+      <c r="AG79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AH79">
+      <c r="AH79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AI79">
+      <c r="AI79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AJ79">
+      <c r="AJ79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AK79">
+      <c r="AK79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AL79">
+      <c r="AL79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AM79">
+      <c r="AM79" s="12">
         <v>0.15</v>
       </c>
-      <c r="AN79">
+      <c r="AN79" s="12">
         <v>0.15</v>
       </c>
       <c r="AW79" s="7"/>
@@ -8787,94 +8951,100 @@
         <v>12</v>
       </c>
       <c r="B80" s="6"/>
-      <c r="E80">
-        <v>0</v>
-      </c>
-      <c r="F80">
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <v>0</v>
-      </c>
-      <c r="H80">
-        <v>0</v>
-      </c>
-      <c r="I80">
-        <v>0</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>0</v>
-      </c>
-      <c r="L80">
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <v>0</v>
-      </c>
-      <c r="R80">
+      <c r="E80" s="12">
+        <v>0</v>
+      </c>
+      <c r="F80" s="12">
+        <v>0</v>
+      </c>
+      <c r="G80" s="12">
+        <v>0</v>
+      </c>
+      <c r="H80" s="12">
+        <v>0</v>
+      </c>
+      <c r="I80" s="12">
+        <v>0</v>
+      </c>
+      <c r="J80" s="12">
+        <v>0</v>
+      </c>
+      <c r="K80" s="12">
+        <v>0</v>
+      </c>
+      <c r="L80" s="12">
+        <v>0</v>
+      </c>
+      <c r="M80" s="12">
+        <v>0</v>
+      </c>
+      <c r="N80" s="12">
+        <v>0</v>
+      </c>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12">
         <v>0.18</v>
       </c>
-      <c r="S80">
+      <c r="S80" s="12">
         <v>0.18</v>
       </c>
-      <c r="T80">
+      <c r="T80" s="12">
         <v>0.18</v>
       </c>
-      <c r="U80">
+      <c r="U80" s="12">
         <v>0.18</v>
       </c>
-      <c r="V80">
+      <c r="V80" s="12">
         <v>0.18</v>
       </c>
-      <c r="W80">
+      <c r="W80" s="12">
         <v>0.18</v>
       </c>
-      <c r="X80">
+      <c r="X80" s="12">
         <v>0.18</v>
       </c>
-      <c r="Y80">
+      <c r="Y80" s="12">
         <v>0.18</v>
       </c>
-      <c r="Z80">
+      <c r="Z80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AA80">
+      <c r="AA80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AE80">
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="12"/>
+      <c r="AD80" s="12"/>
+      <c r="AE80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AF80">
+      <c r="AF80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AG80">
+      <c r="AG80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AH80">
+      <c r="AH80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AI80">
+      <c r="AI80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AJ80">
+      <c r="AJ80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AK80">
+      <c r="AK80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AL80">
+      <c r="AL80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AM80">
+      <c r="AM80" s="12">
         <v>0.18</v>
       </c>
-      <c r="AN80">
+      <c r="AN80" s="12">
         <v>0.18</v>
       </c>
       <c r="AW80" s="7"/>
@@ -8884,94 +9054,100 @@
         <v>13</v>
       </c>
       <c r="B81" s="6"/>
-      <c r="E81">
-        <v>0</v>
-      </c>
-      <c r="F81">
-        <v>0</v>
-      </c>
-      <c r="G81">
-        <v>0</v>
-      </c>
-      <c r="H81">
-        <v>0</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>0</v>
-      </c>
-      <c r="L81">
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <v>0</v>
-      </c>
-      <c r="N81">
-        <v>0</v>
-      </c>
-      <c r="R81">
+      <c r="E81" s="12">
+        <v>0</v>
+      </c>
+      <c r="F81" s="12">
+        <v>0</v>
+      </c>
+      <c r="G81" s="12">
+        <v>0</v>
+      </c>
+      <c r="H81" s="12">
+        <v>0</v>
+      </c>
+      <c r="I81" s="12">
+        <v>0</v>
+      </c>
+      <c r="J81" s="12">
+        <v>0</v>
+      </c>
+      <c r="K81" s="12">
+        <v>0</v>
+      </c>
+      <c r="L81" s="12">
+        <v>0</v>
+      </c>
+      <c r="M81" s="12">
+        <v>0</v>
+      </c>
+      <c r="N81" s="12">
+        <v>0</v>
+      </c>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12">
         <v>0.21</v>
       </c>
-      <c r="S81">
+      <c r="S81" s="12">
         <v>0.21</v>
       </c>
-      <c r="T81">
+      <c r="T81" s="12">
         <v>0.21</v>
       </c>
-      <c r="U81">
+      <c r="U81" s="12">
         <v>0.21</v>
       </c>
-      <c r="V81">
+      <c r="V81" s="12">
         <v>0.21</v>
       </c>
-      <c r="W81">
+      <c r="W81" s="12">
         <v>0.21</v>
       </c>
-      <c r="X81">
+      <c r="X81" s="12">
         <v>0.21</v>
       </c>
-      <c r="Y81">
+      <c r="Y81" s="12">
         <v>0.21</v>
       </c>
-      <c r="Z81">
+      <c r="Z81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AA81">
+      <c r="AA81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AE81">
+      <c r="AB81" s="12"/>
+      <c r="AC81" s="12"/>
+      <c r="AD81" s="12"/>
+      <c r="AE81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AF81">
+      <c r="AF81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AG81">
+      <c r="AG81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AH81">
+      <c r="AH81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AI81">
+      <c r="AI81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AJ81">
+      <c r="AJ81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AK81">
+      <c r="AK81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AL81">
+      <c r="AL81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AM81">
+      <c r="AM81" s="12">
         <v>0.21</v>
       </c>
-      <c r="AN81">
+      <c r="AN81" s="12">
         <v>0.21</v>
       </c>
       <c r="AW81" s="7"/>
@@ -8981,94 +9157,100 @@
         <v>14</v>
       </c>
       <c r="B82" s="6"/>
-      <c r="E82">
-        <v>0</v>
-      </c>
-      <c r="F82">
-        <v>0</v>
-      </c>
-      <c r="G82">
-        <v>0</v>
-      </c>
-      <c r="H82">
-        <v>0</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>0</v>
-      </c>
-      <c r="L82">
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <v>0</v>
-      </c>
-      <c r="N82">
-        <v>0</v>
-      </c>
-      <c r="R82">
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12">
+        <v>0</v>
+      </c>
+      <c r="G82" s="12">
+        <v>0</v>
+      </c>
+      <c r="H82" s="12">
+        <v>0</v>
+      </c>
+      <c r="I82" s="12">
+        <v>0</v>
+      </c>
+      <c r="J82" s="12">
+        <v>0</v>
+      </c>
+      <c r="K82" s="12">
+        <v>0</v>
+      </c>
+      <c r="L82" s="12">
+        <v>0</v>
+      </c>
+      <c r="M82" s="12">
+        <v>0</v>
+      </c>
+      <c r="N82" s="12">
+        <v>0</v>
+      </c>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12">
         <v>0.24</v>
       </c>
-      <c r="S82">
+      <c r="S82" s="12">
         <v>0.24</v>
       </c>
-      <c r="T82">
+      <c r="T82" s="12">
         <v>0.24</v>
       </c>
-      <c r="U82">
+      <c r="U82" s="12">
         <v>0.24</v>
       </c>
-      <c r="V82">
+      <c r="V82" s="12">
         <v>0.24</v>
       </c>
-      <c r="W82">
+      <c r="W82" s="12">
         <v>0.24</v>
       </c>
-      <c r="X82">
+      <c r="X82" s="12">
         <v>0.24</v>
       </c>
-      <c r="Y82">
+      <c r="Y82" s="12">
         <v>0.24</v>
       </c>
-      <c r="Z82">
+      <c r="Z82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AA82">
+      <c r="AA82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AE82">
+      <c r="AB82" s="12"/>
+      <c r="AC82" s="12"/>
+      <c r="AD82" s="12"/>
+      <c r="AE82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AF82">
+      <c r="AF82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AG82">
+      <c r="AG82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AH82">
+      <c r="AH82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AI82">
+      <c r="AI82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AJ82">
+      <c r="AJ82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AK82">
+      <c r="AK82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AL82">
+      <c r="AL82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AM82">
+      <c r="AM82" s="12">
         <v>0.24</v>
       </c>
-      <c r="AN82">
+      <c r="AN82" s="12">
         <v>0.24</v>
       </c>
       <c r="AW82" s="7"/>
@@ -9078,94 +9260,100 @@
         <v>15</v>
       </c>
       <c r="B83" s="6"/>
-      <c r="E83">
-        <v>0</v>
-      </c>
-      <c r="F83">
-        <v>0</v>
-      </c>
-      <c r="G83">
-        <v>0</v>
-      </c>
-      <c r="H83">
-        <v>0</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>0</v>
-      </c>
-      <c r="L83">
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <v>0</v>
-      </c>
-      <c r="N83">
-        <v>0</v>
-      </c>
-      <c r="R83">
+      <c r="E83" s="12">
+        <v>0</v>
+      </c>
+      <c r="F83" s="12">
+        <v>0</v>
+      </c>
+      <c r="G83" s="12">
+        <v>0</v>
+      </c>
+      <c r="H83" s="12">
+        <v>0</v>
+      </c>
+      <c r="I83" s="12">
+        <v>0</v>
+      </c>
+      <c r="J83" s="12">
+        <v>0</v>
+      </c>
+      <c r="K83" s="12">
+        <v>0</v>
+      </c>
+      <c r="L83" s="12">
+        <v>0</v>
+      </c>
+      <c r="M83" s="12">
+        <v>0</v>
+      </c>
+      <c r="N83" s="12">
+        <v>0</v>
+      </c>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12">
         <v>0.27</v>
       </c>
-      <c r="S83">
+      <c r="S83" s="12">
         <v>0.27</v>
       </c>
-      <c r="T83">
+      <c r="T83" s="12">
         <v>0.27</v>
       </c>
-      <c r="U83">
+      <c r="U83" s="12">
         <v>0.27</v>
       </c>
-      <c r="V83">
+      <c r="V83" s="12">
         <v>0.27</v>
       </c>
-      <c r="W83">
+      <c r="W83" s="12">
         <v>0.27</v>
       </c>
-      <c r="X83">
+      <c r="X83" s="12">
         <v>0.27</v>
       </c>
-      <c r="Y83">
+      <c r="Y83" s="12">
         <v>0.27</v>
       </c>
-      <c r="Z83">
+      <c r="Z83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AA83">
+      <c r="AA83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AE83">
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="12"/>
+      <c r="AD83" s="12"/>
+      <c r="AE83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AF83">
+      <c r="AF83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AG83">
+      <c r="AG83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AH83">
+      <c r="AH83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AI83">
+      <c r="AI83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AJ83">
+      <c r="AJ83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AK83">
+      <c r="AK83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AL83">
+      <c r="AL83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AM83">
+      <c r="AM83" s="12">
         <v>0.27</v>
       </c>
-      <c r="AN83">
+      <c r="AN83" s="12">
         <v>0.27</v>
       </c>
       <c r="AW83" s="7"/>
@@ -9576,95 +9764,101 @@
         <v>6</v>
       </c>
       <c r="B107" s="6"/>
-      <c r="E107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="F107">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="G107">
-        <v>0.539995</v>
-      </c>
-      <c r="H107">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="I107">
-        <v>0.479995</v>
-      </c>
-      <c r="J107">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="K107">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="L107">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="M107">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="N107">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="R107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="S107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="T107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="U107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="V107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="W107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="X107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="Y107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="Z107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="AA107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="AE107">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="AF107">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="AG107">
-        <v>0.539995</v>
-      </c>
-      <c r="AH107">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="AI107">
-        <v>0.479995</v>
-      </c>
-      <c r="AJ107">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="AK107">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="AL107">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="AM107">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="AN107">
-        <v>0.32999500000000009</v>
+      <c r="E107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F107" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G107" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="H107" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I107" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J107" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L107" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="M107" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="N107" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="S107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="T107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="U107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="V107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="W107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="X107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="Y107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="Z107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="AA107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="AB107" s="12"/>
+      <c r="AC107" s="12"/>
+      <c r="AD107" s="12"/>
+      <c r="AE107" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="AF107" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AG107" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="AH107" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="AI107" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="AJ107" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="AK107" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AL107" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AM107" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AN107" s="12">
+        <v>0.33</v>
       </c>
       <c r="AW107" s="7"/>
     </row>
@@ -9673,95 +9867,101 @@
         <v>7</v>
       </c>
       <c r="B108" s="6"/>
-      <c r="E108">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="F108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="G108">
-        <v>0.539995</v>
-      </c>
-      <c r="H108">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="I108">
-        <v>0.479995</v>
-      </c>
-      <c r="J108">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="K108">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="L108">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="M108">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="N108">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="R108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="S108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="T108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="U108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="V108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="W108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="X108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="Y108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="Z108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="AA108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="AE108">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="AF108">
-        <v>0.539995</v>
-      </c>
-      <c r="AG108">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="AH108">
-        <v>0.479995</v>
-      </c>
-      <c r="AI108">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="AJ108">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="AK108">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="AL108">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="AM108">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AN108">
-        <v>0.29999500000000007</v>
+      <c r="E108" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G108" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="H108" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I108" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J108" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K108" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L108" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="M108" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="N108" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="S108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="U108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="V108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="W108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="X108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Y108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AA108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AB108" s="12"/>
+      <c r="AC108" s="12"/>
+      <c r="AD108" s="12"/>
+      <c r="AE108" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AF108" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="AG108" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="AH108" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="AI108" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="AJ108" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AK108" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AL108" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AM108" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AN108" s="12">
+        <v>0.3</v>
       </c>
       <c r="AW108" s="7"/>
     </row>
@@ -9770,95 +9970,101 @@
         <v>8</v>
       </c>
       <c r="B109" s="6"/>
-      <c r="E109">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="F109">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="G109">
-        <v>0.539995</v>
-      </c>
-      <c r="H109">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="I109">
-        <v>0.479995</v>
-      </c>
-      <c r="J109">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="K109">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="L109">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="M109">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="N109">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="R109">
-        <v>0.539995</v>
-      </c>
-      <c r="S109">
-        <v>0.539995</v>
-      </c>
-      <c r="T109">
-        <v>0.539995</v>
-      </c>
-      <c r="U109">
-        <v>0.539995</v>
-      </c>
-      <c r="V109">
-        <v>0.539995</v>
-      </c>
-      <c r="W109">
-        <v>0.539995</v>
-      </c>
-      <c r="X109">
-        <v>0.539995</v>
-      </c>
-      <c r="Y109">
-        <v>0.539995</v>
-      </c>
-      <c r="Z109">
-        <v>0.539995</v>
-      </c>
-      <c r="AA109">
-        <v>0.539995</v>
-      </c>
-      <c r="AE109">
-        <v>0.539995</v>
-      </c>
-      <c r="AF109">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="AG109">
-        <v>0.479995</v>
-      </c>
-      <c r="AH109">
-        <v>0.44999499999999998</v>
-      </c>
-      <c r="AI109">
-        <v>0.41999499999999995</v>
-      </c>
-      <c r="AJ109">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="AK109">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="AL109">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AM109">
-        <v>0.29999500000000007</v>
-      </c>
-      <c r="AN109">
-        <v>0.26999500000000004</v>
+      <c r="E109" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F109" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="H109" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I109" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J109" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K109" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L109" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="M109" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="N109" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="S109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="T109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="U109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="V109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="W109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="X109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="Y109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="Z109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="AA109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="AB109" s="12"/>
+      <c r="AC109" s="12"/>
+      <c r="AD109" s="12"/>
+      <c r="AE109" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="AF109" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="AG109" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="AH109" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="AI109" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AJ109" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AK109" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AL109" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AM109" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AN109" s="12">
+        <v>0.27</v>
       </c>
       <c r="AW109" s="7"/>
     </row>
@@ -9867,95 +10073,101 @@
         <v>9</v>
       </c>
       <c r="B110" s="6"/>
-      <c r="E110">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="F110">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="G110">
-        <v>0.539995</v>
-      </c>
-      <c r="H110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="I110">
-        <v>0.479995</v>
-      </c>
-      <c r="J110">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="K110">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="L110">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="M110">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="N110">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="R110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="S110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="T110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="U110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="V110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="W110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="X110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="Y110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="Z110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="AA110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="AE110">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="AF110">
-        <v>0.479995</v>
-      </c>
-      <c r="AG110">
-        <v>0.44999499999999998</v>
-      </c>
-      <c r="AH110">
-        <v>0.41999499999999995</v>
-      </c>
-      <c r="AI110">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="AJ110">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="AK110">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AL110">
-        <v>0.29999500000000007</v>
-      </c>
-      <c r="AM110">
-        <v>0.26999500000000004</v>
-      </c>
-      <c r="AN110">
-        <v>0.23999499999999999</v>
+      <c r="E110" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F110" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G110" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="H110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I110" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J110" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K110" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L110" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="M110" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="N110" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="S110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="T110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="U110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="V110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="W110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="X110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="Y110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="Z110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="AA110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="AB110" s="12"/>
+      <c r="AC110" s="12"/>
+      <c r="AD110" s="12"/>
+      <c r="AE110" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="AF110" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="AG110" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="AH110" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AI110" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AJ110" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AK110" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AL110" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AM110" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="AN110" s="12">
+        <v>0.24</v>
       </c>
       <c r="AW110" s="7"/>
     </row>
@@ -9964,95 +10176,101 @@
         <v>10</v>
       </c>
       <c r="B111" s="6"/>
-      <c r="E111">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="F111">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="G111">
-        <v>0.539995</v>
-      </c>
-      <c r="H111">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="I111">
-        <v>0.479995</v>
-      </c>
-      <c r="J111">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="K111">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="L111">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="M111">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="N111">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="R111">
-        <v>0.479995</v>
-      </c>
-      <c r="S111">
-        <v>0.479995</v>
-      </c>
-      <c r="T111">
-        <v>0.479995</v>
-      </c>
-      <c r="U111">
-        <v>0.479995</v>
-      </c>
-      <c r="V111">
-        <v>0.479995</v>
-      </c>
-      <c r="W111">
-        <v>0.479995</v>
-      </c>
-      <c r="X111">
-        <v>0.479995</v>
-      </c>
-      <c r="Y111">
-        <v>0.479995</v>
-      </c>
-      <c r="Z111">
-        <v>0.479995</v>
-      </c>
-      <c r="AA111">
-        <v>0.479995</v>
-      </c>
-      <c r="AE111">
-        <v>0.479995</v>
-      </c>
-      <c r="AF111">
-        <v>0.44999499999999998</v>
-      </c>
-      <c r="AG111">
-        <v>0.41999499999999995</v>
-      </c>
-      <c r="AH111">
-        <v>0.38999499999999993</v>
-      </c>
-      <c r="AI111">
-        <v>0.3599949999999999</v>
-      </c>
-      <c r="AJ111">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AK111">
-        <v>0.29999500000000007</v>
-      </c>
-      <c r="AL111">
-        <v>0.26999500000000004</v>
-      </c>
-      <c r="AM111">
-        <v>0.23999499999999999</v>
-      </c>
-      <c r="AN111">
-        <v>0.20999499999999996</v>
+      <c r="E111" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F111" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G111" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="H111" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J111" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K111" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L111" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="M111" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="N111" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="S111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="T111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="U111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="V111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="W111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="X111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="Y111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="Z111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="AA111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="AB111" s="12"/>
+      <c r="AC111" s="12"/>
+      <c r="AD111" s="12"/>
+      <c r="AE111" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="AF111" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="AG111" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AH111" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AI111" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AJ111" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AK111" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AL111" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="AM111" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="AN111" s="12">
+        <v>0.21</v>
       </c>
       <c r="AW111" s="7"/>
     </row>
@@ -10061,95 +10279,101 @@
         <v>11</v>
       </c>
       <c r="B112" s="6"/>
-      <c r="E112">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="F112">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="G112">
-        <v>0.539995</v>
-      </c>
-      <c r="H112">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="I112">
-        <v>0.479995</v>
-      </c>
-      <c r="J112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="K112">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="L112">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="M112">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="N112">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="R112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="S112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="T112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="U112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="V112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="W112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="X112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="Y112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="Z112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="AA112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="AE112">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="AF112">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="AG112">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="AH112">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="AI112">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AJ112">
-        <v>0.29999500000000029</v>
-      </c>
-      <c r="AK112">
-        <v>0.26999500000000026</v>
-      </c>
-      <c r="AL112">
-        <v>0.23999500000000021</v>
-      </c>
-      <c r="AM112">
-        <v>0.20999500000000018</v>
-      </c>
-      <c r="AN112">
-        <v>0.17999500000000015</v>
+      <c r="E112" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F112" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G112" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="H112" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I112" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K112" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L112" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="M112" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="N112" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="S112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="T112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="U112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="V112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="W112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="X112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="Y112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="Z112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="AA112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="AB112" s="12"/>
+      <c r="AC112" s="12"/>
+      <c r="AD112" s="12"/>
+      <c r="AE112" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="AF112" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AG112" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AH112" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AI112" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AJ112" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AK112" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="AL112" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="AM112" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="AN112" s="12">
+        <v>0.18</v>
       </c>
       <c r="AW112" s="7"/>
     </row>
@@ -10158,95 +10382,101 @@
         <v>12</v>
       </c>
       <c r="B113" s="6"/>
-      <c r="E113">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="F113">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="G113">
-        <v>0.539995</v>
-      </c>
-      <c r="H113">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="I113">
-        <v>0.479995</v>
-      </c>
-      <c r="J113">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="K113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="L113">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="M113">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="N113">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="R113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="S113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="T113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="U113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="V113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="W113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="X113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="Y113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="Z113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="AA113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="AE113">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="AF113">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="AG113">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="AH113">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AI113">
-        <v>0.29999500000000029</v>
-      </c>
-      <c r="AJ113">
-        <v>0.26999500000000026</v>
-      </c>
-      <c r="AK113">
-        <v>0.23999500000000021</v>
-      </c>
-      <c r="AL113">
-        <v>0.20999500000000018</v>
-      </c>
-      <c r="AM113">
-        <v>0.17999500000000015</v>
-      </c>
-      <c r="AN113">
-        <v>0.14999500000000013</v>
+      <c r="E113" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F113" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G113" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="H113" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I113" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J113" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L113" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="M113" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="N113" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="S113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="T113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="U113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="V113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="W113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="X113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="Y113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="Z113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AA113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AB113" s="12"/>
+      <c r="AC113" s="12"/>
+      <c r="AD113" s="12"/>
+      <c r="AE113" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="AF113" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AG113" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AH113" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AI113" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AJ113" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="AK113" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="AL113" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="AM113" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="AN113" s="12">
+        <v>0.15</v>
       </c>
       <c r="AW113" s="7"/>
     </row>
@@ -10255,95 +10485,101 @@
         <v>13</v>
       </c>
       <c r="B114" s="6"/>
-      <c r="E114">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="F114">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="G114">
-        <v>0.539995</v>
-      </c>
-      <c r="H114">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="I114">
-        <v>0.479995</v>
-      </c>
-      <c r="J114">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="K114">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="L114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="M114">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="N114">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="R114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="S114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="T114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="U114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="V114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="W114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="X114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="Y114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="Z114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="AA114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="AE114">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="AF114">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="AG114">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AH114">
-        <v>0.29999500000000007</v>
-      </c>
-      <c r="AI114">
-        <v>0.26999500000000004</v>
-      </c>
-      <c r="AJ114">
-        <v>0.23999500000000021</v>
-      </c>
-      <c r="AK114">
-        <v>0.20999500000000018</v>
-      </c>
-      <c r="AL114">
-        <v>0.17999500000000015</v>
-      </c>
-      <c r="AM114">
-        <v>0.14999500000000013</v>
-      </c>
-      <c r="AN114">
-        <v>0.1199950000000001</v>
+      <c r="E114" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F114" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G114" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="H114" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I114" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J114" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K114" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="M114" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="N114" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="S114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="T114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="U114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="V114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="W114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="X114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="Y114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="Z114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AA114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AB114" s="12"/>
+      <c r="AC114" s="12"/>
+      <c r="AD114" s="12"/>
+      <c r="AE114" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="AF114" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AG114" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AH114" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AI114" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="AJ114" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="AK114" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="AL114" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="AM114" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="AN114" s="12">
+        <v>0.12</v>
       </c>
       <c r="AW114" s="7"/>
     </row>
@@ -10352,95 +10588,101 @@
         <v>14</v>
       </c>
       <c r="B115" s="6"/>
-      <c r="E115">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="F115">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="G115">
-        <v>0.539995</v>
-      </c>
-      <c r="H115">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="I115">
-        <v>0.479995</v>
-      </c>
-      <c r="J115">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="K115">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="L115">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="M115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="N115">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="R115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="S115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="T115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="U115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="V115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="W115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="X115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="Y115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="Z115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="AA115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="AE115">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="AF115">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AG115">
-        <v>0.29999500000000007</v>
-      </c>
-      <c r="AH115">
-        <v>0.26999500000000004</v>
-      </c>
-      <c r="AI115">
-        <v>0.23999500000000021</v>
-      </c>
-      <c r="AJ115">
-        <v>0.20999500000000018</v>
-      </c>
-      <c r="AK115">
-        <v>0.17999500000000015</v>
-      </c>
-      <c r="AL115">
-        <v>0.14999500000000013</v>
-      </c>
-      <c r="AM115">
-        <v>0.1199950000000001</v>
-      </c>
-      <c r="AN115">
-        <v>8.9995000000000075E-2</v>
+      <c r="E115" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F115" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G115" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="H115" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I115" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J115" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K115" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L115" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="M115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="N115" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="S115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="T115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="U115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="V115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="W115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="X115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="Y115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="Z115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AA115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AB115" s="12"/>
+      <c r="AC115" s="12"/>
+      <c r="AD115" s="12"/>
+      <c r="AE115" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="AF115" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AG115" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AH115" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="AI115" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="AJ115" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="AK115" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="AL115" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="AM115" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="AN115" s="12">
+        <v>0.09</v>
       </c>
       <c r="AW115" s="7"/>
     </row>
@@ -10449,95 +10691,101 @@
         <v>15</v>
       </c>
       <c r="B116" s="6"/>
-      <c r="E116">
-        <v>0.59999500000000006</v>
-      </c>
-      <c r="F116">
-        <v>0.56999500000000003</v>
-      </c>
-      <c r="G116">
-        <v>0.539995</v>
-      </c>
-      <c r="H116">
-        <v>0.50999499999999998</v>
-      </c>
-      <c r="I116">
-        <v>0.479995</v>
-      </c>
-      <c r="J116">
-        <v>0.4499950000000002</v>
-      </c>
-      <c r="K116">
-        <v>0.41999500000000017</v>
-      </c>
-      <c r="L116">
-        <v>0.38999500000000015</v>
-      </c>
-      <c r="M116">
-        <v>0.35999500000000012</v>
-      </c>
-      <c r="N116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="R116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="S116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="T116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="U116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="V116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="W116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="X116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="Y116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="Z116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AA116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AE116">
-        <v>0.32999500000000009</v>
-      </c>
-      <c r="AF116">
-        <v>0.29999500000000007</v>
-      </c>
-      <c r="AG116">
-        <v>0.26999500000000004</v>
-      </c>
-      <c r="AH116">
-        <v>0.23999499999999999</v>
-      </c>
-      <c r="AI116">
-        <v>0.20999499999999996</v>
-      </c>
-      <c r="AJ116">
-        <v>0.17999500000000015</v>
-      </c>
-      <c r="AK116">
-        <v>0.14999500000000013</v>
-      </c>
-      <c r="AL116">
-        <v>0.1199950000000001</v>
-      </c>
-      <c r="AM116">
-        <v>8.9995000000000075E-2</v>
-      </c>
-      <c r="AN116">
-        <v>5.9995000000000055E-2</v>
+      <c r="E116" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F116" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G116" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="H116" s="12">
+        <v>0.51</v>
+      </c>
+      <c r="I116" s="12">
+        <v>0.48</v>
+      </c>
+      <c r="J116" s="12">
+        <v>0.45</v>
+      </c>
+      <c r="K116" s="12">
+        <v>0.42</v>
+      </c>
+      <c r="L116" s="12">
+        <v>0.39</v>
+      </c>
+      <c r="M116" s="12">
+        <v>0.36</v>
+      </c>
+      <c r="N116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="S116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="T116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="U116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="V116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="W116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="X116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="Y116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="Z116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AA116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AB116" s="12"/>
+      <c r="AC116" s="12"/>
+      <c r="AD116" s="12"/>
+      <c r="AE116" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="AF116" s="12">
+        <v>0.3</v>
+      </c>
+      <c r="AG116" s="12">
+        <v>0.27</v>
+      </c>
+      <c r="AH116" s="12">
+        <v>0.24</v>
+      </c>
+      <c r="AI116" s="12">
+        <v>0.21</v>
+      </c>
+      <c r="AJ116" s="12">
+        <v>0.18</v>
+      </c>
+      <c r="AK116" s="12">
+        <v>0.15</v>
+      </c>
+      <c r="AL116" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="AM116" s="12">
+        <v>0.09</v>
+      </c>
+      <c r="AN116" s="12">
+        <v>0.06</v>
       </c>
       <c r="AW116" s="7"/>
     </row>
@@ -10553,6 +10801,36 @@
         <v>17</v>
       </c>
       <c r="B118" s="6"/>
+      <c r="E118" s="13"/>
+      <c r="F118" s="13"/>
+      <c r="G118" s="13"/>
+      <c r="H118" s="13"/>
+      <c r="I118" s="13"/>
+      <c r="J118" s="13"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="13"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="13"/>
+      <c r="R118" s="13"/>
+      <c r="S118" s="13"/>
+      <c r="T118" s="13"/>
+      <c r="U118" s="13"/>
+      <c r="V118" s="13"/>
+      <c r="W118" s="13"/>
+      <c r="X118" s="13"/>
+      <c r="Y118" s="13"/>
+      <c r="Z118" s="13"/>
+      <c r="AA118" s="13"/>
+      <c r="AE118" s="13"/>
+      <c r="AF118" s="13"/>
+      <c r="AG118" s="13"/>
+      <c r="AH118" s="13"/>
+      <c r="AI118" s="13"/>
+      <c r="AJ118" s="13"/>
+      <c r="AK118" s="13"/>
+      <c r="AL118" s="13"/>
+      <c r="AM118" s="13"/>
+      <c r="AN118" s="13"/>
       <c r="AW118" s="7"/>
     </row>
     <row r="119" spans="1:49" x14ac:dyDescent="0.35">
@@ -10560,6 +10838,36 @@
         <v>18</v>
       </c>
       <c r="B119" s="6"/>
+      <c r="E119" s="13"/>
+      <c r="F119" s="13"/>
+      <c r="G119" s="13"/>
+      <c r="H119" s="13"/>
+      <c r="I119" s="13"/>
+      <c r="J119" s="13"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="13"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="13"/>
+      <c r="R119" s="13"/>
+      <c r="S119" s="13"/>
+      <c r="T119" s="13"/>
+      <c r="U119" s="13"/>
+      <c r="V119" s="13"/>
+      <c r="W119" s="13"/>
+      <c r="X119" s="13"/>
+      <c r="Y119" s="13"/>
+      <c r="Z119" s="13"/>
+      <c r="AA119" s="13"/>
+      <c r="AE119" s="13"/>
+      <c r="AF119" s="13"/>
+      <c r="AG119" s="13"/>
+      <c r="AH119" s="13"/>
+      <c r="AI119" s="13"/>
+      <c r="AJ119" s="13"/>
+      <c r="AK119" s="13"/>
+      <c r="AL119" s="13"/>
+      <c r="AM119" s="13"/>
+      <c r="AN119" s="13"/>
       <c r="AW119" s="7"/>
     </row>
     <row r="120" spans="1:49" x14ac:dyDescent="0.35">
@@ -10567,6 +10875,36 @@
         <v>19</v>
       </c>
       <c r="B120" s="6"/>
+      <c r="E120" s="13"/>
+      <c r="F120" s="13"/>
+      <c r="G120" s="13"/>
+      <c r="H120" s="13"/>
+      <c r="I120" s="13"/>
+      <c r="J120" s="13"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="13"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="13"/>
+      <c r="R120" s="13"/>
+      <c r="S120" s="13"/>
+      <c r="T120" s="13"/>
+      <c r="U120" s="13"/>
+      <c r="V120" s="13"/>
+      <c r="W120" s="13"/>
+      <c r="X120" s="13"/>
+      <c r="Y120" s="13"/>
+      <c r="Z120" s="13"/>
+      <c r="AA120" s="13"/>
+      <c r="AE120" s="13"/>
+      <c r="AF120" s="13"/>
+      <c r="AG120" s="13"/>
+      <c r="AH120" s="13"/>
+      <c r="AI120" s="13"/>
+      <c r="AJ120" s="13"/>
+      <c r="AK120" s="13"/>
+      <c r="AL120" s="13"/>
+      <c r="AM120" s="13"/>
+      <c r="AN120" s="13"/>
       <c r="AW120" s="7"/>
     </row>
     <row r="121" spans="1:49" x14ac:dyDescent="0.35">
@@ -10574,6 +10912,36 @@
         <v>20</v>
       </c>
       <c r="B121" s="6"/>
+      <c r="E121" s="13"/>
+      <c r="F121" s="13"/>
+      <c r="G121" s="13"/>
+      <c r="H121" s="13"/>
+      <c r="I121" s="13"/>
+      <c r="J121" s="13"/>
+      <c r="K121" s="13"/>
+      <c r="L121" s="13"/>
+      <c r="M121" s="13"/>
+      <c r="N121" s="13"/>
+      <c r="R121" s="13"/>
+      <c r="S121" s="13"/>
+      <c r="T121" s="13"/>
+      <c r="U121" s="13"/>
+      <c r="V121" s="13"/>
+      <c r="W121" s="13"/>
+      <c r="X121" s="13"/>
+      <c r="Y121" s="13"/>
+      <c r="Z121" s="13"/>
+      <c r="AA121" s="13"/>
+      <c r="AE121" s="13"/>
+      <c r="AF121" s="13"/>
+      <c r="AG121" s="13"/>
+      <c r="AH121" s="13"/>
+      <c r="AI121" s="13"/>
+      <c r="AJ121" s="13"/>
+      <c r="AK121" s="13"/>
+      <c r="AL121" s="13"/>
+      <c r="AM121" s="13"/>
+      <c r="AN121" s="13"/>
       <c r="AW121" s="7"/>
     </row>
     <row r="122" spans="1:49" x14ac:dyDescent="0.35">
@@ -10581,6 +10949,36 @@
         <v>21</v>
       </c>
       <c r="B122" s="6"/>
+      <c r="E122" s="13"/>
+      <c r="F122" s="13"/>
+      <c r="G122" s="13"/>
+      <c r="H122" s="13"/>
+      <c r="I122" s="13"/>
+      <c r="J122" s="13"/>
+      <c r="K122" s="13"/>
+      <c r="L122" s="13"/>
+      <c r="M122" s="13"/>
+      <c r="N122" s="13"/>
+      <c r="R122" s="13"/>
+      <c r="S122" s="13"/>
+      <c r="T122" s="13"/>
+      <c r="U122" s="13"/>
+      <c r="V122" s="13"/>
+      <c r="W122" s="13"/>
+      <c r="X122" s="13"/>
+      <c r="Y122" s="13"/>
+      <c r="Z122" s="13"/>
+      <c r="AA122" s="13"/>
+      <c r="AE122" s="13"/>
+      <c r="AF122" s="13"/>
+      <c r="AG122" s="13"/>
+      <c r="AH122" s="13"/>
+      <c r="AI122" s="13"/>
+      <c r="AJ122" s="13"/>
+      <c r="AK122" s="13"/>
+      <c r="AL122" s="13"/>
+      <c r="AM122" s="13"/>
+      <c r="AN122" s="13"/>
       <c r="AW122" s="7"/>
     </row>
     <row r="123" spans="1:49" x14ac:dyDescent="0.35">
@@ -10588,6 +10986,36 @@
         <v>22</v>
       </c>
       <c r="B123" s="6"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+      <c r="G123" s="13"/>
+      <c r="H123" s="13"/>
+      <c r="I123" s="13"/>
+      <c r="J123" s="13"/>
+      <c r="K123" s="13"/>
+      <c r="L123" s="13"/>
+      <c r="M123" s="13"/>
+      <c r="N123" s="13"/>
+      <c r="R123" s="13"/>
+      <c r="S123" s="13"/>
+      <c r="T123" s="13"/>
+      <c r="U123" s="13"/>
+      <c r="V123" s="13"/>
+      <c r="W123" s="13"/>
+      <c r="X123" s="13"/>
+      <c r="Y123" s="13"/>
+      <c r="Z123" s="13"/>
+      <c r="AA123" s="13"/>
+      <c r="AE123" s="13"/>
+      <c r="AF123" s="13"/>
+      <c r="AG123" s="13"/>
+      <c r="AH123" s="13"/>
+      <c r="AI123" s="13"/>
+      <c r="AJ123" s="13"/>
+      <c r="AK123" s="13"/>
+      <c r="AL123" s="13"/>
+      <c r="AM123" s="13"/>
+      <c r="AN123" s="13"/>
       <c r="AW123" s="7"/>
     </row>
     <row r="124" spans="1:49" x14ac:dyDescent="0.35">
@@ -10595,6 +11023,36 @@
         <v>23</v>
       </c>
       <c r="B124" s="6"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+      <c r="G124" s="13"/>
+      <c r="H124" s="13"/>
+      <c r="I124" s="13"/>
+      <c r="J124" s="13"/>
+      <c r="K124" s="13"/>
+      <c r="L124" s="13"/>
+      <c r="M124" s="13"/>
+      <c r="N124" s="13"/>
+      <c r="R124" s="13"/>
+      <c r="S124" s="13"/>
+      <c r="T124" s="13"/>
+      <c r="U124" s="13"/>
+      <c r="V124" s="13"/>
+      <c r="W124" s="13"/>
+      <c r="X124" s="13"/>
+      <c r="Y124" s="13"/>
+      <c r="Z124" s="13"/>
+      <c r="AA124" s="13"/>
+      <c r="AE124" s="13"/>
+      <c r="AF124" s="13"/>
+      <c r="AG124" s="13"/>
+      <c r="AH124" s="13"/>
+      <c r="AI124" s="13"/>
+      <c r="AJ124" s="13"/>
+      <c r="AK124" s="13"/>
+      <c r="AL124" s="13"/>
+      <c r="AM124" s="13"/>
+      <c r="AN124" s="13"/>
       <c r="AW124" s="7"/>
     </row>
     <row r="125" spans="1:49" x14ac:dyDescent="0.35">
@@ -10602,6 +11060,36 @@
         <v>24</v>
       </c>
       <c r="B125" s="6"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+      <c r="G125" s="13"/>
+      <c r="H125" s="13"/>
+      <c r="I125" s="13"/>
+      <c r="J125" s="13"/>
+      <c r="K125" s="13"/>
+      <c r="L125" s="13"/>
+      <c r="M125" s="13"/>
+      <c r="N125" s="13"/>
+      <c r="R125" s="13"/>
+      <c r="S125" s="13"/>
+      <c r="T125" s="13"/>
+      <c r="U125" s="13"/>
+      <c r="V125" s="13"/>
+      <c r="W125" s="13"/>
+      <c r="X125" s="13"/>
+      <c r="Y125" s="13"/>
+      <c r="Z125" s="13"/>
+      <c r="AA125" s="13"/>
+      <c r="AE125" s="13"/>
+      <c r="AF125" s="13"/>
+      <c r="AG125" s="13"/>
+      <c r="AH125" s="13"/>
+      <c r="AI125" s="13"/>
+      <c r="AJ125" s="13"/>
+      <c r="AK125" s="13"/>
+      <c r="AL125" s="13"/>
+      <c r="AM125" s="13"/>
+      <c r="AN125" s="13"/>
       <c r="AW125" s="7"/>
     </row>
     <row r="126" spans="1:49" x14ac:dyDescent="0.35">
@@ -10609,6 +11097,36 @@
         <v>25</v>
       </c>
       <c r="B126" s="6"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="13"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+      <c r="R126" s="13"/>
+      <c r="S126" s="13"/>
+      <c r="T126" s="13"/>
+      <c r="U126" s="13"/>
+      <c r="V126" s="13"/>
+      <c r="W126" s="13"/>
+      <c r="X126" s="13"/>
+      <c r="Y126" s="13"/>
+      <c r="Z126" s="13"/>
+      <c r="AA126" s="13"/>
+      <c r="AE126" s="13"/>
+      <c r="AF126" s="13"/>
+      <c r="AG126" s="13"/>
+      <c r="AH126" s="13"/>
+      <c r="AI126" s="13"/>
+      <c r="AJ126" s="13"/>
+      <c r="AK126" s="13"/>
+      <c r="AL126" s="13"/>
+      <c r="AM126" s="13"/>
+      <c r="AN126" s="13"/>
       <c r="AW126" s="7"/>
     </row>
     <row r="127" spans="1:49" x14ac:dyDescent="0.35">
@@ -10616,6 +11134,36 @@
         <v>26</v>
       </c>
       <c r="B127" s="6"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="13"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+      <c r="R127" s="13"/>
+      <c r="S127" s="13"/>
+      <c r="T127" s="13"/>
+      <c r="U127" s="13"/>
+      <c r="V127" s="13"/>
+      <c r="W127" s="13"/>
+      <c r="X127" s="13"/>
+      <c r="Y127" s="13"/>
+      <c r="Z127" s="13"/>
+      <c r="AA127" s="13"/>
+      <c r="AE127" s="13"/>
+      <c r="AF127" s="13"/>
+      <c r="AG127" s="13"/>
+      <c r="AH127" s="13"/>
+      <c r="AI127" s="13"/>
+      <c r="AJ127" s="13"/>
+      <c r="AK127" s="13"/>
+      <c r="AL127" s="13"/>
+      <c r="AM127" s="13"/>
+      <c r="AN127" s="13"/>
       <c r="AW127" s="7"/>
     </row>
     <row r="128" spans="1:49" x14ac:dyDescent="0.35">
@@ -10623,6 +11171,16 @@
         <v>27</v>
       </c>
       <c r="B128" s="6"/>
+      <c r="R128" s="13"/>
+      <c r="S128" s="13"/>
+      <c r="T128" s="13"/>
+      <c r="U128" s="13"/>
+      <c r="V128" s="13"/>
+      <c r="W128" s="13"/>
+      <c r="X128" s="13"/>
+      <c r="Y128" s="13"/>
+      <c r="Z128" s="13"/>
+      <c r="AA128" s="13"/>
       <c r="AW128" s="7"/>
     </row>
     <row r="129" spans="1:49" x14ac:dyDescent="0.35">
